--- a/Lab3/VelocitySineResponse/VelocitySine2Hz.xlsx
+++ b/Lab3/VelocitySineResponse/VelocitySine2Hz.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shiva\Documents\GitHub\ME552\Lab3\VelocitySineResponse\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sinedata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Input:</t>
   </si>
@@ -35,6 +40,12 @@
   </si>
   <si>
     <t>tau=6.5797</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Amplitude:</t>
   </si>
 </sst>
 </file>
@@ -572,6 +583,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6021,11 +6035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86424896"/>
-        <c:axId val="86424320"/>
+        <c:axId val="252986176"/>
+        <c:axId val="253097664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86424896"/>
+        <c:axId val="252986176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6034,12 +6048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86424320"/>
+        <c:crossAx val="253097664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86424320"/>
+        <c:axId val="253097664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6064,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86424896"/>
+        <c:crossAx val="252986176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6145,7 +6159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6180,7 +6194,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6389,20 +6403,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1800"/>
+  <dimension ref="A1:E1800"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1.5780000000000001</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.6040000000000001</v>
       </c>
@@ -6413,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-1.6240000000000001</v>
       </c>
@@ -6421,12 +6435,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-1.6359999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-1.6419999999999999</v>
       </c>
@@ -6434,7 +6448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-1.64</v>
       </c>
@@ -6442,7 +6456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-1.633</v>
       </c>
@@ -6450,7 +6464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-1.621</v>
       </c>
@@ -6458,42 +6472,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.605</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.583</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.5569999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1.6321428570000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.5249999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-1.4870000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.446</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.3959999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-1.343</v>
       </c>
